--- a/data/stats/Dereck Lively.xlsx
+++ b/data/stats/Dereck Lively.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,6 +900,56 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>vs San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>G
+110-93</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3-6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/data/stats/Dereck Lively.xlsx
+++ b/data/stats/Dereck Lively.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,6 +950,56 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>@ Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>18 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>G
+119-121</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
